--- a/pred_ohlcv/54_21/2020-01-20 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BSV ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>405.7345144000004</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-350.5425895899996</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>511.3282489200004</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2509.554441610001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3322.326917010001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3544.705949620001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3254.903641220001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2782.826703190001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2450.923995060001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2786.441495060001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2586.749207490001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2892.792407490001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3304.127407490001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3382.528207490001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3345.715420830001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4177.509740500001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4425.677721200001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4306.428357490001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4042.390257490001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3993.606061840001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3838.289361840001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3655.646761840001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4157.120361840001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3571.841360500001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3780.800403840001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4221.967646290002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4365.778178020001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4173.435172120001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3902.866974120001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3902.866974120001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4044.025867510001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3998.205568190001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4056.418467520001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3992.914174700001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>1850.018375930004</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2349.492235120004</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2555.128335120004</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2402.744392530004</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2538.368392090004</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2596.192392530004</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2275.440092530004</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2339.672500520004</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2178.514400520004</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2230.728892530004</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2181.176292530004</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2279.162017800003</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2373.150017800003</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2494.946419140003</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2419.184394770003</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2246.466188610003</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2404.204988610003</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-3970.997174139995</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-3956.169774139995</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-3969.726174139995</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-3964.313074139995</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-3963.102974139995</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-4072.744874139995</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-4051.876474139995</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-4158.299874139995</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-4142.793574139995</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-3875.756559599995</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BSV ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>405.7345144000004</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-350.5425895899996</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>511.3282489200004</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2509.554441610001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3544.705949620001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3254.903641220001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2782.826703190001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2450.923995060001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2720.389707490001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2586.749207490001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2892.792407490001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3017.262207490001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3178.016092030001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3304.127407490001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3382.528207490001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4177.509740500001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4425.677721200001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4306.428357490001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4042.390257490001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3993.606061840001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3838.289361840001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3655.646761840001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4157.120361840001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3571.841360500001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3780.800403840001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4221.967646290002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4365.778178020001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4173.435172120001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>1850.018375930004</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2349.492235120004</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2555.128335120004</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2402.744392530004</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2538.368392090004</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2596.192392530004</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2275.440092530004</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2339.672500520004</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2178.514400520004</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2230.728892530004</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2181.176292530004</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2279.162017800003</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2373.150017800003</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2494.946419140003</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2419.184394770003</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2246.466188610003</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2404.204988610003</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-4885.610448879996</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-4275.138067149996</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-4170.369671879996</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-3786.426274139995</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4010.035974139995</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-3960.639274139995</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-3970.997174139995</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-3956.169774139995</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-3969.726174139995</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-3964.313074139995</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-3963.102974139995</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-4072.744874139995</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-4051.876474139995</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-4158.299874139995</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-4142.793574139995</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-3875.756559599995</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-3858.996143219995</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
